--- a/AP_features_CTRL.xlsx
+++ b/AP_features_CTRL.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,7 +423,7 @@
         <v>22.82812879435141</v>
       </c>
       <c r="C2">
-        <v>85.14111327127956</v>
+        <v>85.12299538462781</v>
       </c>
       <c r="D2">
         <v>450.8907624470085</v>
@@ -432,7 +432,7 @@
         <v>560.4888044308609</v>
       </c>
       <c r="F2">
-        <v>-62.31298447692815</v>
+        <v>-62.29486659027641</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -513,6 +513,106 @@
       </c>
       <c r="F6">
         <v>-62.31178334165743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>23.08858121195873</v>
+      </c>
+      <c r="B7">
+        <v>33.68635225913793</v>
+      </c>
+      <c r="C7">
+        <v>93.72291643362533</v>
+      </c>
+      <c r="D7">
+        <v>455.073605864709</v>
+      </c>
+      <c r="E7">
+        <v>559.0435229765426</v>
+      </c>
+      <c r="F7">
+        <v>-60.03656417448739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>23.45877458147732</v>
+      </c>
+      <c r="B8">
+        <v>25.33205938633813</v>
+      </c>
+      <c r="C8">
+        <v>85.6337490629374</v>
+      </c>
+      <c r="D8">
+        <v>452.0239086865186</v>
+      </c>
+      <c r="E8">
+        <v>563.8660850005617</v>
+      </c>
+      <c r="F8">
+        <v>-60.30168967659927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>24.48838692909772</v>
+      </c>
+      <c r="B9">
+        <v>18.04775097614319</v>
+      </c>
+      <c r="C9">
+        <v>80.75133114723734</v>
+      </c>
+      <c r="D9">
+        <v>455.6913124150014</v>
+      </c>
+      <c r="E9">
+        <v>559.9101351955615</v>
+      </c>
+      <c r="F9">
+        <v>-62.70358017109415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>28.36900799965918</v>
+      </c>
+      <c r="B10">
+        <v>28.32784251241945</v>
+      </c>
+      <c r="C10">
+        <v>88.36201398905406</v>
+      </c>
+      <c r="D10">
+        <v>465.8756347376111</v>
+      </c>
+      <c r="E10">
+        <v>576.3708183606504</v>
+      </c>
+      <c r="F10">
+        <v>-60.0341714766346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>23.21987120378941</v>
+      </c>
+      <c r="B11">
+        <v>22.40755293304961</v>
+      </c>
+      <c r="C11">
+        <v>83.38002605124694</v>
+      </c>
+      <c r="D11">
+        <v>450.3296827762897</v>
+      </c>
+      <c r="E11">
+        <v>565.0946210376933</v>
+      </c>
+      <c r="F11">
+        <v>-60.97247311819733</v>
       </c>
     </row>
   </sheetData>

--- a/AP_features_CTRL.xlsx
+++ b/AP_features_CTRL.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,7 +423,7 @@
         <v>22.82812879435141</v>
       </c>
       <c r="C2">
-        <v>85.12299538462781</v>
+        <v>85.14111327127956</v>
       </c>
       <c r="D2">
         <v>450.8907624470085</v>
@@ -432,7 +432,7 @@
         <v>560.4888044308609</v>
       </c>
       <c r="F2">
-        <v>-62.29486659027641</v>
+        <v>-62.31298447692815</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -613,6 +613,106 @@
       </c>
       <c r="F11">
         <v>-60.97247311819733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>26.11447073486466</v>
+      </c>
+      <c r="B12">
+        <v>30.71128848733969</v>
+      </c>
+      <c r="C12">
+        <v>90.73281205741358</v>
+      </c>
+      <c r="D12">
+        <v>455.7751262971797</v>
+      </c>
+      <c r="E12">
+        <v>555.6771897395447</v>
+      </c>
+      <c r="F12">
+        <v>-60.0215235700739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>22.62370833580325</v>
+      </c>
+      <c r="B13">
+        <v>25.23211642357033</v>
+      </c>
+      <c r="C13">
+        <v>86.03277878617686</v>
+      </c>
+      <c r="D13">
+        <v>449.6003394984</v>
+      </c>
+      <c r="E13">
+        <v>569.3030545334623</v>
+      </c>
+      <c r="F13">
+        <v>-60.80066236260653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>24.46763294536975</v>
+      </c>
+      <c r="B14">
+        <v>30.39125772322456</v>
+      </c>
+      <c r="C14">
+        <v>90.91175079196731</v>
+      </c>
+      <c r="D14">
+        <v>454.0483537112814</v>
+      </c>
+      <c r="E14">
+        <v>563.9537231880167</v>
+      </c>
+      <c r="F14">
+        <v>-60.52049306874274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>22.81122042419054</v>
+      </c>
+      <c r="B15">
+        <v>22.39517466134373</v>
+      </c>
+      <c r="C15">
+        <v>85.39759451944869</v>
+      </c>
+      <c r="D15">
+        <v>448.309466406994</v>
+      </c>
+      <c r="E15">
+        <v>563.2321339871269</v>
+      </c>
+      <c r="F15">
+        <v>-63.00241985810496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>23.06912877954494</v>
+      </c>
+      <c r="B16">
+        <v>22.67249896201557</v>
+      </c>
+      <c r="C16">
+        <v>85.19122575418287</v>
+      </c>
+      <c r="D16">
+        <v>442.5169103011649</v>
+      </c>
+      <c r="E16">
+        <v>565.8289653211832</v>
+      </c>
+      <c r="F16">
+        <v>-62.5187267921673</v>
       </c>
     </row>
   </sheetData>
